--- a/Data/Copy of aa_properties.xlsx
+++ b/Data/Copy of aa_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\MY RESEARCH VISITS\2024-06-10--12 STSM COST Geneve\Mikhails papers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s194146_dtu_dk/Documents/DTU/11. speciale/BioScat/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2261D8E4-344B-4C5D-9E4A-5A2A46760ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{2261D8E4-344B-4C5D-9E4A-5A2A46760ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AEDBA12-A595-A146-AC92-58B5D450D7D4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27840" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,8 +263,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Linked Cell" xfId="1" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Sammenkædet celle" xfId="1" builtinId="24"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -542,22 +542,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="H2:P25"/>
+  <dimension ref="H2:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="18.453125" customWidth="1"/>
-    <col min="11" max="11" width="21.1796875" customWidth="1"/>
-    <col min="12" max="12" width="22.7265625" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="8:16" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="8:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="10" t="s">
@@ -576,7 +576,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="8:16" ht="19" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="8:16" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3" t="s">
@@ -597,7 +597,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="8:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="8:16" ht="20" x14ac:dyDescent="0.25">
       <c r="H4" s="1"/>
       <c r="I4" s="6" t="s">
         <v>17</v>
@@ -618,7 +618,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="8:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="8:16" ht="20" x14ac:dyDescent="0.25">
       <c r="H5" s="1"/>
       <c r="I5" s="6" t="s">
         <v>16</v>
@@ -639,7 +639,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="8:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="8:16" ht="20" x14ac:dyDescent="0.25">
       <c r="H6" s="1"/>
       <c r="I6" s="6" t="s">
         <v>18</v>
@@ -660,7 +660,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="8:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="8:16" ht="20" x14ac:dyDescent="0.25">
       <c r="H7" s="1"/>
       <c r="I7" s="6" t="s">
         <v>1</v>
@@ -681,7 +681,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="8:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="8:16" ht="20" x14ac:dyDescent="0.25">
       <c r="H8" s="1"/>
       <c r="I8" s="6" t="s">
         <v>9</v>
@@ -702,7 +702,7 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="8:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="8:16" ht="20" x14ac:dyDescent="0.25">
       <c r="H9" s="1"/>
       <c r="I9" s="6" t="s">
         <v>0</v>
@@ -721,7 +721,7 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="8:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="8:16" ht="20" x14ac:dyDescent="0.25">
       <c r="H10" s="1"/>
       <c r="I10" s="6" t="s">
         <v>15</v>
@@ -742,7 +742,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="8:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="8:16" ht="20" x14ac:dyDescent="0.25">
       <c r="H11" s="1"/>
       <c r="I11" s="6" t="s">
         <v>3</v>
@@ -761,7 +761,7 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="8:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="8:16" ht="20" x14ac:dyDescent="0.25">
       <c r="H12" s="1"/>
       <c r="I12" s="6" t="s">
         <v>7</v>
@@ -780,7 +780,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="8:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="8:16" ht="20" x14ac:dyDescent="0.25">
       <c r="H13" s="1"/>
       <c r="I13" s="6" t="s">
         <v>8</v>
@@ -799,7 +799,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="8:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="8:16" ht="20" x14ac:dyDescent="0.25">
       <c r="H14" s="1"/>
       <c r="I14" s="6" t="s">
         <v>4</v>
@@ -818,7 +818,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="8:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="8:16" ht="20" x14ac:dyDescent="0.25">
       <c r="H15" s="1"/>
       <c r="I15" s="6" t="s">
         <v>2</v>
@@ -839,7 +839,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="8:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="8:16" ht="20" x14ac:dyDescent="0.25">
       <c r="H16" s="1"/>
       <c r="I16" s="6" t="s">
         <v>13</v>
@@ -858,7 +858,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="8:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="8:16" ht="20" x14ac:dyDescent="0.25">
       <c r="H17" s="1"/>
       <c r="I17" s="6" t="s">
         <v>10</v>
@@ -877,7 +877,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="8:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="8:16" ht="20" x14ac:dyDescent="0.25">
       <c r="H18" s="1"/>
       <c r="I18" s="6" t="s">
         <v>14</v>
@@ -896,7 +896,7 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="8:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="8:16" ht="20" x14ac:dyDescent="0.25">
       <c r="H19" s="1"/>
       <c r="I19" s="6" t="s">
         <v>19</v>
@@ -915,7 +915,7 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="8:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="8:16" ht="20" x14ac:dyDescent="0.25">
       <c r="H20" s="1"/>
       <c r="I20" s="6" t="s">
         <v>6</v>
@@ -934,7 +934,7 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="8:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="8:16" ht="20" x14ac:dyDescent="0.25">
       <c r="H21" s="1"/>
       <c r="I21" s="6" t="s">
         <v>5</v>
@@ -953,7 +953,7 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="8:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="8:16" ht="20" x14ac:dyDescent="0.25">
       <c r="H22" s="1"/>
       <c r="I22" s="6" t="s">
         <v>12</v>
@@ -972,7 +972,7 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="8:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="8:16" ht="20" x14ac:dyDescent="0.25">
       <c r="H23" s="1"/>
       <c r="I23" s="6" t="s">
         <v>11</v>
@@ -991,7 +991,7 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="8:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="8:16" ht="19" x14ac:dyDescent="0.25">
       <c r="H24" s="1"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1002,7 +1002,7 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="8:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="8:16" ht="19" x14ac:dyDescent="0.25">
       <c r="H25" s="1"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -1013,6 +1013,10 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
+    <row r="26" spans="8:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="J26" s="7"/>
+      <c r="K26" s="2"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I4:N23">
     <sortCondition descending="1" ref="J4"/>
@@ -1020,7 +1024,7 @@
   <mergeCells count="1">
     <mergeCell ref="L2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J4:J23">
+  <conditionalFormatting sqref="J4:J23 J26">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1032,7 +1036,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K23">
+  <conditionalFormatting sqref="K4:K23 K26">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
